--- a/Code/Results/Cases/Case_1_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9920573661047623</v>
+        <v>1.04085365438401</v>
       </c>
       <c r="D2">
-        <v>1.041204767439186</v>
+        <v>1.052257361413211</v>
       </c>
       <c r="E2">
-        <v>1.013127516937957</v>
+        <v>1.049478834493663</v>
       </c>
       <c r="F2">
-        <v>1.033446988430211</v>
+        <v>1.061082028683717</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058346093648075</v>
+        <v>1.042982717299858</v>
       </c>
       <c r="J2">
-        <v>1.014478263329821</v>
+        <v>1.045938016317031</v>
       </c>
       <c r="K2">
-        <v>1.052118417912219</v>
+        <v>1.055006594089548</v>
       </c>
       <c r="L2">
-        <v>1.024406944627566</v>
+        <v>1.05223577948633</v>
       </c>
       <c r="M2">
-        <v>1.044459219159214</v>
+        <v>1.063807056908867</v>
       </c>
       <c r="N2">
-        <v>1.00811719861319</v>
+        <v>1.019111224970098</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9988566100252851</v>
+        <v>1.042249780945378</v>
       </c>
       <c r="D3">
-        <v>1.044994282126182</v>
+        <v>1.052995776197247</v>
       </c>
       <c r="E3">
-        <v>1.018607434064817</v>
+        <v>1.050640395774867</v>
       </c>
       <c r="F3">
-        <v>1.038589821976995</v>
+        <v>1.062141771948873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059934351094166</v>
+        <v>1.043192547166726</v>
       </c>
       <c r="J3">
-        <v>1.019378493610314</v>
+        <v>1.046977704605015</v>
       </c>
       <c r="K3">
-        <v>1.055082086848138</v>
+        <v>1.055558009583848</v>
       </c>
       <c r="L3">
-        <v>1.029007638934591</v>
+        <v>1.05320869321399</v>
       </c>
       <c r="M3">
-        <v>1.048751646414637</v>
+        <v>1.064680733287245</v>
       </c>
       <c r="N3">
-        <v>1.009813068041763</v>
+        <v>1.019464255734456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003137332781648</v>
+        <v>1.043152564587135</v>
       </c>
       <c r="D4">
-        <v>1.047379269950619</v>
+        <v>1.053472073759189</v>
       </c>
       <c r="E4">
-        <v>1.022062855006943</v>
+        <v>1.05139147124112</v>
       </c>
       <c r="F4">
-        <v>1.041829566873642</v>
+        <v>1.062826302805115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060917761565544</v>
+        <v>1.04332594188614</v>
       </c>
       <c r="J4">
-        <v>1.022461124320001</v>
+        <v>1.047649423913213</v>
       </c>
       <c r="K4">
-        <v>1.056937616913192</v>
+        <v>1.055912641810683</v>
       </c>
       <c r="L4">
-        <v>1.031902098010732</v>
+        <v>1.05383712565092</v>
       </c>
       <c r="M4">
-        <v>1.051448055729104</v>
+        <v>1.065244267322451</v>
       </c>
       <c r="N4">
-        <v>1.010878897586632</v>
+        <v>1.019692125809572</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004909952919804</v>
+        <v>1.043531954647306</v>
       </c>
       <c r="D5">
-        <v>1.048366458255536</v>
+        <v>1.053671948694716</v>
       </c>
       <c r="E5">
-        <v>1.023494884318376</v>
+        <v>1.051707098329339</v>
       </c>
       <c r="F5">
-        <v>1.043171394673886</v>
+        <v>1.063113795223161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061320895646172</v>
+        <v>1.043381451401179</v>
       </c>
       <c r="J5">
-        <v>1.023736953500069</v>
+        <v>1.047931571224356</v>
       </c>
       <c r="K5">
-        <v>1.057703325803822</v>
+        <v>1.056061209797688</v>
       </c>
       <c r="L5">
-        <v>1.033100076145315</v>
+        <v>1.054101055632682</v>
       </c>
       <c r="M5">
-        <v>1.052563014761821</v>
+        <v>1.065480749120798</v>
       </c>
       <c r="N5">
-        <v>1.01131976534898</v>
+        <v>1.019787788122297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005206040899636</v>
+        <v>1.043595647812622</v>
       </c>
       <c r="D6">
-        <v>1.048531321541613</v>
+        <v>1.05370548743265</v>
       </c>
       <c r="E6">
-        <v>1.023734147033194</v>
+        <v>1.051760086243647</v>
       </c>
       <c r="F6">
-        <v>1.043395536462984</v>
+        <v>1.063162049832708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061387988813919</v>
+        <v>1.043390738288698</v>
       </c>
       <c r="J6">
-        <v>1.023950019180363</v>
+        <v>1.047978930800788</v>
       </c>
       <c r="K6">
-        <v>1.057831064447116</v>
+        <v>1.056086124564237</v>
       </c>
       <c r="L6">
-        <v>1.033300141318238</v>
+        <v>1.054145355278103</v>
       </c>
       <c r="M6">
-        <v>1.0527491520679</v>
+        <v>1.065520430400881</v>
       </c>
       <c r="N6">
-        <v>1.011393375704332</v>
+        <v>1.019803842396955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00316112284896</v>
+        <v>1.043157634561162</v>
       </c>
       <c r="D7">
-        <v>1.04739252079607</v>
+        <v>1.053474745914661</v>
       </c>
       <c r="E7">
-        <v>1.022082069611962</v>
+        <v>1.051395689154076</v>
       </c>
       <c r="F7">
-        <v>1.041847574505196</v>
+        <v>1.062830145408432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060923188303514</v>
+        <v>1.043326685845319</v>
       </c>
       <c r="J7">
-        <v>1.02247824976521</v>
+        <v>1.047653194932746</v>
       </c>
       <c r="K7">
-        <v>1.056947904093249</v>
+        <v>1.055914629024094</v>
       </c>
       <c r="L7">
-        <v>1.031918178390975</v>
+        <v>1.053840653327035</v>
       </c>
       <c r="M7">
-        <v>1.05146302598153</v>
+        <v>1.065247428883613</v>
       </c>
       <c r="N7">
-        <v>1.01088481637417</v>
+        <v>1.019693404580594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9943807214425791</v>
+        <v>1.041325609477219</v>
       </c>
       <c r="D8">
-        <v>1.042499715472009</v>
+        <v>1.052507224033498</v>
       </c>
       <c r="E8">
-        <v>1.014998850278164</v>
+        <v>1.04987150125024</v>
       </c>
       <c r="F8">
-        <v>1.035203825147404</v>
+        <v>1.061440421978086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058892221045705</v>
+        <v>1.043054122908556</v>
       </c>
       <c r="J8">
-        <v>1.016153192293288</v>
+        <v>1.046289598466005</v>
       </c>
       <c r="K8">
-        <v>1.053133203473262</v>
+        <v>1.055193397084167</v>
       </c>
       <c r="L8">
-        <v>1.025979414272683</v>
+        <v>1.052564810940426</v>
       </c>
       <c r="M8">
-        <v>1.045927152465174</v>
+        <v>1.064102691997766</v>
       </c>
       <c r="N8">
-        <v>1.00869706114837</v>
+        <v>1.019230650759599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9779266499125658</v>
+        <v>1.03809253018405</v>
       </c>
       <c r="D9">
-        <v>1.033334930803375</v>
+        <v>1.050790788308924</v>
       </c>
       <c r="E9">
-        <v>1.001774280210873</v>
+        <v>1.047181501254747</v>
       </c>
       <c r="F9">
-        <v>1.022778078693033</v>
+        <v>1.0589823404767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054958748539761</v>
+        <v>1.042555610284823</v>
       </c>
       <c r="J9">
-        <v>1.004283698962763</v>
+        <v>1.043878765984041</v>
       </c>
       <c r="K9">
-        <v>1.045909371087544</v>
+        <v>1.053905859712889</v>
       </c>
       <c r="L9">
-        <v>1.014838636397902</v>
+        <v>1.050308029840047</v>
       </c>
       <c r="M9">
-        <v>1.035512099503912</v>
+        <v>1.062071725539127</v>
       </c>
       <c r="N9">
-        <v>1.004584062607016</v>
+        <v>1.018410857631866</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9661856930377859</v>
+        <v>1.035933631459746</v>
       </c>
       <c r="D10">
-        <v>1.026814923653135</v>
+        <v>1.04963873069465</v>
       </c>
       <c r="E10">
-        <v>0.9923805521939767</v>
+        <v>1.04538519772742</v>
       </c>
       <c r="F10">
-        <v>1.013942353500976</v>
+        <v>1.057337327552643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052074237816353</v>
+        <v>1.042211014491157</v>
       </c>
       <c r="J10">
-        <v>0.9958082553992497</v>
+        <v>1.042265988777262</v>
       </c>
       <c r="K10">
-        <v>1.040716335977612</v>
+        <v>1.053036297116612</v>
       </c>
       <c r="L10">
-        <v>1.006888754512611</v>
+        <v>1.048797595849952</v>
       </c>
       <c r="M10">
-        <v>1.02806435617847</v>
+        <v>1.060708383424948</v>
       </c>
       <c r="N10">
-        <v>1.001643020611169</v>
+        <v>1.017861340865055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9608900260674402</v>
+        <v>1.03499790971204</v>
       </c>
       <c r="D11">
-        <v>1.023882969591121</v>
+        <v>1.049138031175774</v>
       </c>
       <c r="E11">
-        <v>0.9881561234699021</v>
+        <v>1.044606638344901</v>
       </c>
       <c r="F11">
-        <v>1.009967955332541</v>
+        <v>1.056623503074934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050756967763446</v>
+        <v>1.042058892712587</v>
       </c>
       <c r="J11">
-        <v>0.9919854578900152</v>
+        <v>1.04156628077834</v>
       </c>
       <c r="K11">
-        <v>1.038368117971443</v>
+        <v>1.052657103557216</v>
       </c>
       <c r="L11">
-        <v>1.00330490860436</v>
+        <v>1.048142126185659</v>
       </c>
       <c r="M11">
-        <v>1.024704307436319</v>
+        <v>1.060115798724604</v>
       </c>
       <c r="N11">
-        <v>1.000315729524313</v>
+        <v>1.01762267266412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9588883777384045</v>
+        <v>1.034650199720728</v>
       </c>
       <c r="D12">
-        <v>1.022776475683268</v>
+        <v>1.048951770522201</v>
       </c>
       <c r="E12">
-        <v>0.986561489794367</v>
+        <v>1.044317331148598</v>
       </c>
       <c r="F12">
-        <v>1.008467692182752</v>
+        <v>1.056358125899953</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050256837122353</v>
+        <v>1.042001950547419</v>
       </c>
       <c r="J12">
-        <v>0.9905406508780652</v>
+        <v>1.04130616948025</v>
       </c>
       <c r="K12">
-        <v>1.037479947662689</v>
+        <v>1.052515852814261</v>
       </c>
       <c r="L12">
-        <v>1.001950760067803</v>
+        <v>1.047898436043748</v>
       </c>
       <c r="M12">
-        <v>1.023434442983947</v>
+        <v>1.059895346570144</v>
       </c>
       <c r="N12">
-        <v>0.9998139950138448</v>
+        <v>1.017533910790249</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9593193522891776</v>
+        <v>1.034724791174095</v>
       </c>
       <c r="D13">
-        <v>1.023014630291303</v>
+        <v>1.048991736677905</v>
       </c>
       <c r="E13">
-        <v>0.9869047310002003</v>
+        <v>1.044379393805741</v>
       </c>
       <c r="F13">
-        <v>1.008790618695691</v>
+        <v>1.056415060692268</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050364617336557</v>
+        <v>1.042014184630785</v>
       </c>
       <c r="J13">
-        <v>0.9908517239984245</v>
+        <v>1.041361973733087</v>
       </c>
       <c r="K13">
-        <v>1.037671201220829</v>
+        <v>1.052546169751762</v>
       </c>
       <c r="L13">
-        <v>1.002242297259252</v>
+        <v>1.047950718387367</v>
       </c>
       <c r="M13">
-        <v>1.023707845162013</v>
+        <v>1.059942649715084</v>
       </c>
       <c r="N13">
-        <v>0.9999220243684884</v>
+        <v>1.01755295550396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9607252923552526</v>
+        <v>1.034969170808942</v>
       </c>
       <c r="D14">
-        <v>1.023791868904517</v>
+        <v>1.04912264049739</v>
       </c>
       <c r="E14">
-        <v>0.9880248424928996</v>
+        <v>1.044582726498034</v>
       </c>
       <c r="F14">
-        <v>1.009844443026513</v>
+        <v>1.056601571639433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050715851494906</v>
+        <v>1.042054194778981</v>
       </c>
       <c r="J14">
-        <v>0.9918665482776733</v>
+        <v>1.041544784173116</v>
       </c>
       <c r="K14">
-        <v>1.038295032667782</v>
+        <v>1.052645435918465</v>
       </c>
       <c r="L14">
-        <v>1.003193452870744</v>
+        <v>1.048121987177669</v>
       </c>
       <c r="M14">
-        <v>1.024599793826805</v>
+        <v>1.060097583024424</v>
       </c>
       <c r="N14">
-        <v>1.000274437809571</v>
+        <v>1.017615337827982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9615868643665176</v>
+        <v>1.035119722285557</v>
       </c>
       <c r="D15">
-        <v>1.024268406060277</v>
+        <v>1.04920325773462</v>
       </c>
       <c r="E15">
-        <v>0.988711540898906</v>
+        <v>1.044707991069929</v>
       </c>
       <c r="F15">
-        <v>1.010490505769078</v>
+        <v>1.056716456517151</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050930803813835</v>
+        <v>1.042078788389424</v>
       </c>
       <c r="J15">
-        <v>0.9924884621848271</v>
+        <v>1.041657391971718</v>
       </c>
       <c r="K15">
-        <v>1.038677252995985</v>
+        <v>1.052706543874391</v>
       </c>
       <c r="L15">
-        <v>1.003776396484518</v>
+        <v>1.048227482355349</v>
       </c>
       <c r="M15">
-        <v>1.025146417652221</v>
+        <v>1.060192997461338</v>
       </c>
       <c r="N15">
-        <v>1.000490395662598</v>
+        <v>1.017653759042852</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9665324569434577</v>
+        <v>1.035995712716339</v>
       </c>
       <c r="D16">
-        <v>1.027007125534748</v>
+        <v>1.049671921435336</v>
       </c>
       <c r="E16">
-        <v>0.992657449004667</v>
+        <v>1.045436852116861</v>
       </c>
       <c r="F16">
-        <v>1.014202853133655</v>
+        <v>1.057384669459942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052160174236833</v>
+        <v>1.042221048992131</v>
       </c>
       <c r="J16">
-        <v>0.9960585851780018</v>
+        <v>1.042312397035574</v>
       </c>
       <c r="K16">
-        <v>1.04087000026568</v>
+        <v>1.053061406694048</v>
       </c>
       <c r="L16">
-        <v>1.007123481422537</v>
+        <v>1.048841066588168</v>
       </c>
       <c r="M16">
-        <v>1.028284380984954</v>
+        <v>1.060747663775952</v>
       </c>
       <c r="N16">
-        <v>1.001729922325305</v>
+        <v>1.017877165141119</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9695761350861851</v>
+        <v>1.036544952444678</v>
       </c>
       <c r="D17">
-        <v>1.028695197800387</v>
+        <v>1.049965405911711</v>
       </c>
       <c r="E17">
-        <v>0.9950893194776192</v>
+        <v>1.045893844868679</v>
       </c>
       <c r="F17">
-        <v>1.01649062513565</v>
+        <v>1.057803412509545</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052912658987972</v>
+        <v>1.042309506182661</v>
       </c>
       <c r="J17">
-        <v>0.9982558371896523</v>
+        <v>1.042722896510843</v>
       </c>
       <c r="K17">
-        <v>1.042218131730497</v>
+        <v>1.05328328822331</v>
       </c>
       <c r="L17">
-        <v>1.009184002070938</v>
+        <v>1.049225563712749</v>
       </c>
       <c r="M17">
-        <v>1.030215562695827</v>
+        <v>1.061094987899417</v>
       </c>
       <c r="N17">
-        <v>1.002492613430105</v>
+        <v>1.018017107301657</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9713312344689603</v>
+        <v>1.03686522779634</v>
       </c>
       <c r="D18">
-        <v>1.029669409197097</v>
+        <v>1.050136411884502</v>
       </c>
       <c r="E18">
-        <v>0.9964927922485063</v>
+        <v>1.046160329045726</v>
       </c>
       <c r="F18">
-        <v>1.017810841939202</v>
+        <v>1.058047511445047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053345027273988</v>
+        <v>1.042360821056114</v>
       </c>
       <c r="J18">
-        <v>0.9995228448967075</v>
+        <v>1.042962202465412</v>
       </c>
       <c r="K18">
-        <v>1.042994935189651</v>
+        <v>1.053412450664278</v>
       </c>
       <c r="L18">
-        <v>1.010372340532931</v>
+        <v>1.04944969546867</v>
       </c>
       <c r="M18">
-        <v>1.031329059598738</v>
+        <v>1.061297359367388</v>
       </c>
       <c r="N18">
-        <v>1.00293233391981</v>
+        <v>1.018098663435963</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.971926326677199</v>
+        <v>1.03697441883918</v>
       </c>
       <c r="D19">
-        <v>1.029999855416692</v>
+        <v>1.050194690228985</v>
       </c>
       <c r="E19">
-        <v>0.9969688515346209</v>
+        <v>1.0462511811527</v>
       </c>
       <c r="F19">
-        <v>1.018258641185229</v>
+        <v>1.058130718038459</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053491360516871</v>
+        <v>1.042378270495448</v>
       </c>
       <c r="J19">
-        <v>0.9999524370152644</v>
+        <v>1.043043777422885</v>
       </c>
       <c r="K19">
-        <v>1.043258215037151</v>
+        <v>1.053456448094953</v>
       </c>
       <c r="L19">
-        <v>1.010775286882567</v>
+        <v>1.049526095130849</v>
       </c>
       <c r="M19">
-        <v>1.031706582989121</v>
+        <v>1.061366326091567</v>
       </c>
       <c r="N19">
-        <v>1.00308141285193</v>
+        <v>1.018126460171582</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9692516884700458</v>
+        <v>1.036486033247826</v>
       </c>
       <c r="D20">
-        <v>1.028515168208476</v>
+        <v>1.049933936278051</v>
       </c>
       <c r="E20">
-        <v>0.9948299671231154</v>
+        <v>1.045844821339098</v>
       </c>
       <c r="F20">
-        <v>1.016246649437209</v>
+        <v>1.05775850054433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052832605317201</v>
+        <v>1.042300044600464</v>
       </c>
       <c r="J20">
-        <v>0.9980216171729468</v>
+        <v>1.042678867424799</v>
       </c>
       <c r="K20">
-        <v>1.042074483332135</v>
+        <v>1.053259509054346</v>
       </c>
       <c r="L20">
-        <v>1.008964338621368</v>
+        <v>1.049184325200586</v>
       </c>
       <c r="M20">
-        <v>1.030009712708513</v>
+        <v>1.061057745749821</v>
       </c>
       <c r="N20">
-        <v>1.002411320365708</v>
+        <v>1.018002100056473</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9603122572752016</v>
+        <v>1.034897211040803</v>
       </c>
       <c r="D21">
-        <v>1.023563482217254</v>
+        <v>1.049084100278754</v>
       </c>
       <c r="E21">
-        <v>0.9876957178398941</v>
+        <v>1.044522853304253</v>
       </c>
       <c r="F21">
-        <v>1.009534794898322</v>
+        <v>1.056546655207888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050612725968885</v>
+        <v>1.042042424862945</v>
       </c>
       <c r="J21">
-        <v>0.9915684100052078</v>
+        <v>1.041490956841724</v>
       </c>
       <c r="K21">
-        <v>1.038111778165448</v>
+        <v>1.052616215591699</v>
       </c>
       <c r="L21">
-        <v>1.002914009289872</v>
+        <v>1.048071558871138</v>
       </c>
       <c r="M21">
-        <v>1.024337751577172</v>
+        <v>1.060051968423034</v>
       </c>
       <c r="N21">
-        <v>1.000170907015355</v>
+        <v>1.017596970830686</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.954489854062769</v>
+        <v>1.033897435409231</v>
       </c>
       <c r="D22">
-        <v>1.020348650847599</v>
+        <v>1.048548162747359</v>
       </c>
       <c r="E22">
-        <v>0.9830615204419104</v>
+        <v>1.043691009247546</v>
       </c>
       <c r="F22">
-        <v>1.0051749811201</v>
+        <v>1.055783382468681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049153958079717</v>
+        <v>1.041877918528418</v>
       </c>
       <c r="J22">
-        <v>0.9873661513263133</v>
+        <v>1.040742861683277</v>
       </c>
       <c r="K22">
-        <v>1.035527495141437</v>
+        <v>1.052209428906149</v>
       </c>
       <c r="L22">
-        <v>0.9989761693806435</v>
+        <v>1.047370646956312</v>
       </c>
       <c r="M22">
-        <v>1.020644613013471</v>
+        <v>1.059417629244778</v>
       </c>
       <c r="N22">
-        <v>0.9987114508959571</v>
+        <v>1.017341613723446</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.957596571423981</v>
+        <v>1.034427514930324</v>
       </c>
       <c r="D23">
-        <v>1.022062913895929</v>
+        <v>1.048832426327756</v>
       </c>
       <c r="E23">
-        <v>0.9855329839262561</v>
+        <v>1.044132050125198</v>
       </c>
       <c r="F23">
-        <v>1.007500067083734</v>
+        <v>1.056188135296511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049933465944279</v>
+        <v>1.041965366402939</v>
       </c>
       <c r="J23">
-        <v>0.989608267587412</v>
+        <v>1.041139556834105</v>
       </c>
       <c r="K23">
-        <v>1.036906620150366</v>
+        <v>1.052425294600236</v>
       </c>
       <c r="L23">
-        <v>1.001076988201356</v>
+        <v>1.047742335131581</v>
       </c>
       <c r="M23">
-        <v>1.022614992208155</v>
+        <v>1.059754091570676</v>
       </c>
       <c r="N23">
-        <v>0.9994901856210363</v>
+        <v>1.017477044049925</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9693983542298713</v>
+        <v>1.036512656564893</v>
       </c>
       <c r="D24">
-        <v>1.028596547928936</v>
+        <v>1.04994815660275</v>
       </c>
       <c r="E24">
-        <v>0.9949472034887793</v>
+        <v>1.045866973184173</v>
       </c>
       <c r="F24">
-        <v>1.016356935316897</v>
+        <v>1.057778794781787</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052868798302853</v>
+        <v>1.042304320749589</v>
       </c>
       <c r="J24">
-        <v>0.9981274961333811</v>
+        <v>1.042698762679542</v>
       </c>
       <c r="K24">
-        <v>1.042139421265916</v>
+        <v>1.053270254632332</v>
       </c>
       <c r="L24">
-        <v>1.009063636760537</v>
+        <v>1.049202959538244</v>
       </c>
       <c r="M24">
-        <v>1.030102767300382</v>
+        <v>1.061074574544065</v>
       </c>
       <c r="N24">
-        <v>1.002448069052685</v>
+        <v>1.018008881400097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9823075508456649</v>
+        <v>1.038928957615875</v>
       </c>
       <c r="D25">
-        <v>1.03577297883961</v>
+        <v>1.051235896306691</v>
       </c>
       <c r="E25">
-        <v>1.005288739943764</v>
+        <v>1.047877442749789</v>
       </c>
       <c r="F25">
-        <v>1.026082262485901</v>
+        <v>1.059618915106541</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056019977919733</v>
+        <v>1.042686647345533</v>
       </c>
       <c r="J25">
-        <v>1.007445367437825</v>
+        <v>1.04450299019152</v>
       </c>
       <c r="K25">
-        <v>1.047840233660925</v>
+        <v>1.054240692245014</v>
       </c>
       <c r="L25">
-        <v>1.017805506091436</v>
+        <v>1.050892493607058</v>
       </c>
       <c r="M25">
-        <v>1.038288741140981</v>
+        <v>1.062598422878149</v>
       </c>
       <c r="N25">
-        <v>1.00568041707056</v>
+        <v>1.018623316373808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04085365438401</v>
+        <v>0.9920573661047627</v>
       </c>
       <c r="D2">
-        <v>1.052257361413211</v>
+        <v>1.041204767439186</v>
       </c>
       <c r="E2">
-        <v>1.049478834493663</v>
+        <v>1.013127516937957</v>
       </c>
       <c r="F2">
-        <v>1.061082028683717</v>
+        <v>1.033446988430212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042982717299858</v>
+        <v>1.058346093648075</v>
       </c>
       <c r="J2">
-        <v>1.045938016317031</v>
+        <v>1.014478263329822</v>
       </c>
       <c r="K2">
-        <v>1.055006594089548</v>
+        <v>1.052118417912219</v>
       </c>
       <c r="L2">
-        <v>1.05223577948633</v>
+        <v>1.024406944627566</v>
       </c>
       <c r="M2">
-        <v>1.063807056908867</v>
+        <v>1.044459219159215</v>
       </c>
       <c r="N2">
-        <v>1.019111224970098</v>
+        <v>1.00811719861319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042249780945378</v>
+        <v>0.9988566100252847</v>
       </c>
       <c r="D3">
-        <v>1.052995776197247</v>
+        <v>1.044994282126182</v>
       </c>
       <c r="E3">
-        <v>1.050640395774867</v>
+        <v>1.018607434064817</v>
       </c>
       <c r="F3">
-        <v>1.062141771948873</v>
+        <v>1.038589821976994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043192547166726</v>
+        <v>1.059934351094166</v>
       </c>
       <c r="J3">
-        <v>1.046977704605015</v>
+        <v>1.019378493610314</v>
       </c>
       <c r="K3">
-        <v>1.055558009583848</v>
+        <v>1.055082086848137</v>
       </c>
       <c r="L3">
-        <v>1.05320869321399</v>
+        <v>1.029007638934591</v>
       </c>
       <c r="M3">
-        <v>1.064680733287245</v>
+        <v>1.048751646414637</v>
       </c>
       <c r="N3">
-        <v>1.019464255734456</v>
+        <v>1.009813068041763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043152564587135</v>
+        <v>1.003137332781648</v>
       </c>
       <c r="D4">
-        <v>1.053472073759189</v>
+        <v>1.047379269950618</v>
       </c>
       <c r="E4">
-        <v>1.05139147124112</v>
+        <v>1.022062855006943</v>
       </c>
       <c r="F4">
-        <v>1.062826302805115</v>
+        <v>1.041829566873641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04332594188614</v>
+        <v>1.060917761565543</v>
       </c>
       <c r="J4">
-        <v>1.047649423913213</v>
+        <v>1.022461124320002</v>
       </c>
       <c r="K4">
-        <v>1.055912641810683</v>
+        <v>1.056937616913192</v>
       </c>
       <c r="L4">
-        <v>1.05383712565092</v>
+        <v>1.031902098010732</v>
       </c>
       <c r="M4">
-        <v>1.065244267322451</v>
+        <v>1.051448055729104</v>
       </c>
       <c r="N4">
-        <v>1.019692125809572</v>
+        <v>1.010878897586632</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043531954647306</v>
+        <v>1.004909952919804</v>
       </c>
       <c r="D5">
-        <v>1.053671948694716</v>
+        <v>1.048366458255536</v>
       </c>
       <c r="E5">
-        <v>1.051707098329339</v>
+        <v>1.023494884318375</v>
       </c>
       <c r="F5">
-        <v>1.063113795223161</v>
+        <v>1.043171394673885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043381451401179</v>
+        <v>1.061320895646171</v>
       </c>
       <c r="J5">
-        <v>1.047931571224356</v>
+        <v>1.023736953500069</v>
       </c>
       <c r="K5">
-        <v>1.056061209797688</v>
+        <v>1.057703325803822</v>
       </c>
       <c r="L5">
-        <v>1.054101055632682</v>
+        <v>1.033100076145314</v>
       </c>
       <c r="M5">
-        <v>1.065480749120798</v>
+        <v>1.05256301476182</v>
       </c>
       <c r="N5">
-        <v>1.019787788122297</v>
+        <v>1.01131976534898</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043595647812622</v>
+        <v>1.005206040899636</v>
       </c>
       <c r="D6">
-        <v>1.05370548743265</v>
+        <v>1.048531321541612</v>
       </c>
       <c r="E6">
-        <v>1.051760086243647</v>
+        <v>1.023734147033192</v>
       </c>
       <c r="F6">
-        <v>1.063162049832708</v>
+        <v>1.043395536462983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043390738288698</v>
+        <v>1.061387988813918</v>
       </c>
       <c r="J6">
-        <v>1.047978930800788</v>
+        <v>1.023950019180363</v>
       </c>
       <c r="K6">
-        <v>1.056086124564237</v>
+        <v>1.057831064447116</v>
       </c>
       <c r="L6">
-        <v>1.054145355278103</v>
+        <v>1.033300141318237</v>
       </c>
       <c r="M6">
-        <v>1.065520430400881</v>
+        <v>1.052749152067899</v>
       </c>
       <c r="N6">
-        <v>1.019803842396955</v>
+        <v>1.011393375704332</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043157634561162</v>
+        <v>1.003161122848959</v>
       </c>
       <c r="D7">
-        <v>1.053474745914661</v>
+        <v>1.04739252079607</v>
       </c>
       <c r="E7">
-        <v>1.051395689154076</v>
+        <v>1.022082069611962</v>
       </c>
       <c r="F7">
-        <v>1.062830145408432</v>
+        <v>1.041847574505196</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043326685845319</v>
+        <v>1.060923188303513</v>
       </c>
       <c r="J7">
-        <v>1.047653194932746</v>
+        <v>1.02247824976521</v>
       </c>
       <c r="K7">
-        <v>1.055914629024094</v>
+        <v>1.056947904093248</v>
       </c>
       <c r="L7">
-        <v>1.053840653327035</v>
+        <v>1.031918178390974</v>
       </c>
       <c r="M7">
-        <v>1.065247428883613</v>
+        <v>1.051463025981529</v>
       </c>
       <c r="N7">
-        <v>1.019693404580594</v>
+        <v>1.01088481637417</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041325609477219</v>
+        <v>0.9943807214425784</v>
       </c>
       <c r="D8">
-        <v>1.052507224033498</v>
+        <v>1.042499715472009</v>
       </c>
       <c r="E8">
-        <v>1.04987150125024</v>
+        <v>1.014998850278163</v>
       </c>
       <c r="F8">
-        <v>1.061440421978086</v>
+        <v>1.035203825147404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043054122908556</v>
+        <v>1.058892221045705</v>
       </c>
       <c r="J8">
-        <v>1.046289598466005</v>
+        <v>1.016153192293287</v>
       </c>
       <c r="K8">
-        <v>1.055193397084167</v>
+        <v>1.053133203473261</v>
       </c>
       <c r="L8">
-        <v>1.052564810940426</v>
+        <v>1.025979414272683</v>
       </c>
       <c r="M8">
-        <v>1.064102691997766</v>
+        <v>1.045927152465174</v>
       </c>
       <c r="N8">
-        <v>1.019230650759599</v>
+        <v>1.008697061148369</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03809253018405</v>
+        <v>0.9779266499125662</v>
       </c>
       <c r="D9">
-        <v>1.050790788308924</v>
+        <v>1.033334930803375</v>
       </c>
       <c r="E9">
-        <v>1.047181501254747</v>
+        <v>1.001774280210873</v>
       </c>
       <c r="F9">
-        <v>1.0589823404767</v>
+        <v>1.022778078693033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042555610284823</v>
+        <v>1.054958748539761</v>
       </c>
       <c r="J9">
-        <v>1.043878765984041</v>
+        <v>1.004283698962763</v>
       </c>
       <c r="K9">
-        <v>1.053905859712889</v>
+        <v>1.045909371087544</v>
       </c>
       <c r="L9">
-        <v>1.050308029840047</v>
+        <v>1.014838636397902</v>
       </c>
       <c r="M9">
-        <v>1.062071725539127</v>
+        <v>1.035512099503912</v>
       </c>
       <c r="N9">
-        <v>1.018410857631866</v>
+        <v>1.004584062607016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035933631459746</v>
+        <v>0.9661856930377855</v>
       </c>
       <c r="D10">
-        <v>1.04963873069465</v>
+        <v>1.026814923653135</v>
       </c>
       <c r="E10">
-        <v>1.04538519772742</v>
+        <v>0.992380552193976</v>
       </c>
       <c r="F10">
-        <v>1.057337327552643</v>
+        <v>1.013942353500975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042211014491157</v>
+        <v>1.052074237816353</v>
       </c>
       <c r="J10">
-        <v>1.042265988777262</v>
+        <v>0.9958082553992491</v>
       </c>
       <c r="K10">
-        <v>1.053036297116612</v>
+        <v>1.040716335977613</v>
       </c>
       <c r="L10">
-        <v>1.048797595849952</v>
+        <v>1.006888754512611</v>
       </c>
       <c r="M10">
-        <v>1.060708383424948</v>
+        <v>1.02806435617847</v>
       </c>
       <c r="N10">
-        <v>1.017861340865055</v>
+        <v>1.001643020611169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03499790971204</v>
+        <v>0.9608900260674405</v>
       </c>
       <c r="D11">
-        <v>1.049138031175774</v>
+        <v>1.023882969591122</v>
       </c>
       <c r="E11">
-        <v>1.044606638344901</v>
+        <v>0.9881561234699023</v>
       </c>
       <c r="F11">
-        <v>1.056623503074934</v>
+        <v>1.009967955332541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042058892712587</v>
+        <v>1.050756967763447</v>
       </c>
       <c r="J11">
-        <v>1.04156628077834</v>
+        <v>0.9919854578900155</v>
       </c>
       <c r="K11">
-        <v>1.052657103557216</v>
+        <v>1.038368117971444</v>
       </c>
       <c r="L11">
-        <v>1.048142126185659</v>
+        <v>1.00330490860436</v>
       </c>
       <c r="M11">
-        <v>1.060115798724604</v>
+        <v>1.02470430743632</v>
       </c>
       <c r="N11">
-        <v>1.01762267266412</v>
+        <v>1.000315729524313</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034650199720728</v>
+        <v>0.9588883777384045</v>
       </c>
       <c r="D12">
-        <v>1.048951770522201</v>
+        <v>1.022776475683268</v>
       </c>
       <c r="E12">
-        <v>1.044317331148598</v>
+        <v>0.986561489794367</v>
       </c>
       <c r="F12">
-        <v>1.056358125899953</v>
+        <v>1.008467692182752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042001950547419</v>
+        <v>1.050256837122353</v>
       </c>
       <c r="J12">
-        <v>1.04130616948025</v>
+        <v>0.9905406508780653</v>
       </c>
       <c r="K12">
-        <v>1.052515852814261</v>
+        <v>1.037479947662689</v>
       </c>
       <c r="L12">
-        <v>1.047898436043748</v>
+        <v>1.001950760067803</v>
       </c>
       <c r="M12">
-        <v>1.059895346570144</v>
+        <v>1.023434442983947</v>
       </c>
       <c r="N12">
-        <v>1.017533910790249</v>
+        <v>0.9998139950138448</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034724791174095</v>
+        <v>0.9593193522891774</v>
       </c>
       <c r="D13">
-        <v>1.048991736677905</v>
+        <v>1.023014630291303</v>
       </c>
       <c r="E13">
-        <v>1.044379393805741</v>
+        <v>0.9869047310001999</v>
       </c>
       <c r="F13">
-        <v>1.056415060692268</v>
+        <v>1.008790618695691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042014184630785</v>
+        <v>1.050364617336557</v>
       </c>
       <c r="J13">
-        <v>1.041361973733087</v>
+        <v>0.9908517239984241</v>
       </c>
       <c r="K13">
-        <v>1.052546169751762</v>
+        <v>1.03767120122083</v>
       </c>
       <c r="L13">
-        <v>1.047950718387367</v>
+        <v>1.002242297259252</v>
       </c>
       <c r="M13">
-        <v>1.059942649715084</v>
+        <v>1.023707845162013</v>
       </c>
       <c r="N13">
-        <v>1.01755295550396</v>
+        <v>0.9999220243684882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034969170808942</v>
+        <v>0.9607252923552529</v>
       </c>
       <c r="D14">
-        <v>1.04912264049739</v>
+        <v>1.023791868904518</v>
       </c>
       <c r="E14">
-        <v>1.044582726498034</v>
+        <v>0.9880248424929</v>
       </c>
       <c r="F14">
-        <v>1.056601571639433</v>
+        <v>1.009844443026514</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042054194778981</v>
+        <v>1.050715851494907</v>
       </c>
       <c r="J14">
-        <v>1.041544784173116</v>
+        <v>0.9918665482776737</v>
       </c>
       <c r="K14">
-        <v>1.052645435918465</v>
+        <v>1.038295032667783</v>
       </c>
       <c r="L14">
-        <v>1.048121987177669</v>
+        <v>1.003193452870744</v>
       </c>
       <c r="M14">
-        <v>1.060097583024424</v>
+        <v>1.024599793826805</v>
       </c>
       <c r="N14">
-        <v>1.017615337827982</v>
+        <v>1.000274437809571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035119722285557</v>
+        <v>0.9615868643665167</v>
       </c>
       <c r="D15">
-        <v>1.04920325773462</v>
+        <v>1.024268406060277</v>
       </c>
       <c r="E15">
-        <v>1.044707991069929</v>
+        <v>0.9887115408989053</v>
       </c>
       <c r="F15">
-        <v>1.056716456517151</v>
+        <v>1.010490505769077</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042078788389424</v>
+        <v>1.050930803813834</v>
       </c>
       <c r="J15">
-        <v>1.041657391971718</v>
+        <v>0.9924884621848263</v>
       </c>
       <c r="K15">
-        <v>1.052706543874391</v>
+        <v>1.038677252995985</v>
       </c>
       <c r="L15">
-        <v>1.048227482355349</v>
+        <v>1.003776396484517</v>
       </c>
       <c r="M15">
-        <v>1.060192997461338</v>
+        <v>1.02514641765222</v>
       </c>
       <c r="N15">
-        <v>1.017653759042852</v>
+        <v>1.000490395662597</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035995712716339</v>
+        <v>0.9665324569434569</v>
       </c>
       <c r="D16">
-        <v>1.049671921435336</v>
+        <v>1.027007125534747</v>
       </c>
       <c r="E16">
-        <v>1.045436852116861</v>
+        <v>0.9926574490046657</v>
       </c>
       <c r="F16">
-        <v>1.057384669459942</v>
+        <v>1.014202853133654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042221048992131</v>
+        <v>1.052160174236833</v>
       </c>
       <c r="J16">
-        <v>1.042312397035574</v>
+        <v>0.9960585851780007</v>
       </c>
       <c r="K16">
-        <v>1.053061406694048</v>
+        <v>1.040870000265679</v>
       </c>
       <c r="L16">
-        <v>1.048841066588168</v>
+        <v>1.007123481422536</v>
       </c>
       <c r="M16">
-        <v>1.060747663775952</v>
+        <v>1.028284380984953</v>
       </c>
       <c r="N16">
-        <v>1.017877165141119</v>
+        <v>1.001729922325304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036544952444678</v>
+        <v>0.969576135086185</v>
       </c>
       <c r="D17">
-        <v>1.049965405911711</v>
+        <v>1.028695197800386</v>
       </c>
       <c r="E17">
-        <v>1.045893844868679</v>
+        <v>0.9950893194776191</v>
       </c>
       <c r="F17">
-        <v>1.057803412509545</v>
+        <v>1.01649062513565</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042309506182661</v>
+        <v>1.052912658987972</v>
       </c>
       <c r="J17">
-        <v>1.042722896510843</v>
+        <v>0.9982558371896523</v>
       </c>
       <c r="K17">
-        <v>1.05328328822331</v>
+        <v>1.042218131730496</v>
       </c>
       <c r="L17">
-        <v>1.049225563712749</v>
+        <v>1.009184002070938</v>
       </c>
       <c r="M17">
-        <v>1.061094987899417</v>
+        <v>1.030215562695827</v>
       </c>
       <c r="N17">
-        <v>1.018017107301657</v>
+        <v>1.002492613430105</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03686522779634</v>
+        <v>0.9713312344689599</v>
       </c>
       <c r="D18">
-        <v>1.050136411884502</v>
+        <v>1.029669409197097</v>
       </c>
       <c r="E18">
-        <v>1.046160329045726</v>
+        <v>0.9964927922485058</v>
       </c>
       <c r="F18">
-        <v>1.058047511445047</v>
+        <v>1.017810841939201</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042360821056114</v>
+        <v>1.053345027273988</v>
       </c>
       <c r="J18">
-        <v>1.042962202465412</v>
+        <v>0.9995228448967073</v>
       </c>
       <c r="K18">
-        <v>1.053412450664278</v>
+        <v>1.04299493518965</v>
       </c>
       <c r="L18">
-        <v>1.04944969546867</v>
+        <v>1.01037234053293</v>
       </c>
       <c r="M18">
-        <v>1.061297359367388</v>
+        <v>1.031329059598737</v>
       </c>
       <c r="N18">
-        <v>1.018098663435963</v>
+        <v>1.002932333919809</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03697441883918</v>
+        <v>0.9719263266771997</v>
       </c>
       <c r="D19">
-        <v>1.050194690228985</v>
+        <v>1.029999855416693</v>
       </c>
       <c r="E19">
-        <v>1.0462511811527</v>
+        <v>0.9969688515346217</v>
       </c>
       <c r="F19">
-        <v>1.058130718038459</v>
+        <v>1.01825864118523</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042378270495448</v>
+        <v>1.053491360516871</v>
       </c>
       <c r="J19">
-        <v>1.043043777422885</v>
+        <v>0.9999524370152649</v>
       </c>
       <c r="K19">
-        <v>1.053456448094953</v>
+        <v>1.043258215037152</v>
       </c>
       <c r="L19">
-        <v>1.049526095130849</v>
+        <v>1.010775286882567</v>
       </c>
       <c r="M19">
-        <v>1.061366326091567</v>
+        <v>1.031706582989122</v>
       </c>
       <c r="N19">
-        <v>1.018126460171582</v>
+        <v>1.00308141285193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036486033247826</v>
+        <v>0.9692516884700465</v>
       </c>
       <c r="D20">
-        <v>1.049933936278051</v>
+        <v>1.028515168208477</v>
       </c>
       <c r="E20">
-        <v>1.045844821339098</v>
+        <v>0.9948299671231162</v>
       </c>
       <c r="F20">
-        <v>1.05775850054433</v>
+        <v>1.01624664943721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042300044600464</v>
+        <v>1.052832605317201</v>
       </c>
       <c r="J20">
-        <v>1.042678867424799</v>
+        <v>0.9980216171729475</v>
       </c>
       <c r="K20">
-        <v>1.053259509054346</v>
+        <v>1.042074483332135</v>
       </c>
       <c r="L20">
-        <v>1.049184325200586</v>
+        <v>1.008964338621369</v>
       </c>
       <c r="M20">
-        <v>1.061057745749821</v>
+        <v>1.030009712708513</v>
       </c>
       <c r="N20">
-        <v>1.018002100056473</v>
+        <v>1.002411320365709</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034897211040803</v>
+        <v>0.960312257275202</v>
       </c>
       <c r="D21">
-        <v>1.049084100278754</v>
+        <v>1.023563482217255</v>
       </c>
       <c r="E21">
-        <v>1.044522853304253</v>
+        <v>0.9876957178398946</v>
       </c>
       <c r="F21">
-        <v>1.056546655207888</v>
+        <v>1.009534794898322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042042424862945</v>
+        <v>1.050612725968885</v>
       </c>
       <c r="J21">
-        <v>1.041490956841724</v>
+        <v>0.9915684100052082</v>
       </c>
       <c r="K21">
-        <v>1.052616215591699</v>
+        <v>1.038111778165449</v>
       </c>
       <c r="L21">
-        <v>1.048071558871138</v>
+        <v>1.002914009289872</v>
       </c>
       <c r="M21">
-        <v>1.060051968423034</v>
+        <v>1.024337751577172</v>
       </c>
       <c r="N21">
-        <v>1.017596970830686</v>
+        <v>1.000170907015356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033897435409231</v>
+        <v>0.9544898540627695</v>
       </c>
       <c r="D22">
-        <v>1.048548162747359</v>
+        <v>1.020348650847599</v>
       </c>
       <c r="E22">
-        <v>1.043691009247546</v>
+        <v>0.9830615204419108</v>
       </c>
       <c r="F22">
-        <v>1.055783382468681</v>
+        <v>1.0051749811201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041877918528418</v>
+        <v>1.049153958079716</v>
       </c>
       <c r="J22">
-        <v>1.040742861683277</v>
+        <v>0.9873661513263137</v>
       </c>
       <c r="K22">
-        <v>1.052209428906149</v>
+        <v>1.035527495141437</v>
       </c>
       <c r="L22">
-        <v>1.047370646956312</v>
+        <v>0.9989761693806439</v>
       </c>
       <c r="M22">
-        <v>1.059417629244778</v>
+        <v>1.020644613013471</v>
       </c>
       <c r="N22">
-        <v>1.017341613723446</v>
+        <v>0.9987114508959571</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034427514930324</v>
+        <v>0.95759657142398</v>
       </c>
       <c r="D23">
-        <v>1.048832426327756</v>
+        <v>1.022062913895929</v>
       </c>
       <c r="E23">
-        <v>1.044132050125198</v>
+        <v>0.9855329839262552</v>
       </c>
       <c r="F23">
-        <v>1.056188135296511</v>
+        <v>1.007500067083733</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041965366402939</v>
+        <v>1.049933465944279</v>
       </c>
       <c r="J23">
-        <v>1.041139556834105</v>
+        <v>0.9896082675874109</v>
       </c>
       <c r="K23">
-        <v>1.052425294600236</v>
+        <v>1.036906620150365</v>
       </c>
       <c r="L23">
-        <v>1.047742335131581</v>
+        <v>1.001076988201355</v>
       </c>
       <c r="M23">
-        <v>1.059754091570676</v>
+        <v>1.022614992208154</v>
       </c>
       <c r="N23">
-        <v>1.017477044049925</v>
+        <v>0.9994901856210361</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036512656564893</v>
+        <v>0.9693983542298706</v>
       </c>
       <c r="D24">
-        <v>1.04994815660275</v>
+        <v>1.028596547928935</v>
       </c>
       <c r="E24">
-        <v>1.045866973184173</v>
+        <v>0.9949472034887786</v>
       </c>
       <c r="F24">
-        <v>1.057778794781787</v>
+        <v>1.016356935316896</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042304320749589</v>
+        <v>1.052868798302853</v>
       </c>
       <c r="J24">
-        <v>1.042698762679542</v>
+        <v>0.9981274961333806</v>
       </c>
       <c r="K24">
-        <v>1.053270254632332</v>
+        <v>1.042139421265915</v>
       </c>
       <c r="L24">
-        <v>1.049202959538244</v>
+        <v>1.009063636760536</v>
       </c>
       <c r="M24">
-        <v>1.061074574544065</v>
+        <v>1.030102767300381</v>
       </c>
       <c r="N24">
-        <v>1.018008881400097</v>
+        <v>1.002448069052685</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038928957615875</v>
+        <v>0.9823075508456648</v>
       </c>
       <c r="D25">
-        <v>1.051235896306691</v>
+        <v>1.03577297883961</v>
       </c>
       <c r="E25">
-        <v>1.047877442749789</v>
+        <v>1.005288739943764</v>
       </c>
       <c r="F25">
-        <v>1.059618915106541</v>
+        <v>1.026082262485901</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042686647345533</v>
+        <v>1.056019977919734</v>
       </c>
       <c r="J25">
-        <v>1.04450299019152</v>
+        <v>1.007445367437825</v>
       </c>
       <c r="K25">
-        <v>1.054240692245014</v>
+        <v>1.047840233660925</v>
       </c>
       <c r="L25">
-        <v>1.050892493607058</v>
+        <v>1.017805506091436</v>
       </c>
       <c r="M25">
-        <v>1.062598422878149</v>
+        <v>1.038288741140982</v>
       </c>
       <c r="N25">
-        <v>1.018623316373808</v>
+        <v>1.005680417070559</v>
       </c>
     </row>
   </sheetData>
